--- a/data/financial_statements/sofp/CVS.xlsx
+++ b/data/financial_statements/sofp/CVS.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -490,141 +601,141 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>19989000000</v>
+        <v>20140000000</v>
       </c>
       <c r="C2">
-        <v>14993000000</v>
+        <v>15124000000</v>
       </c>
       <c r="D2">
-        <v>11342000000</v>
+        <v>14255000000</v>
       </c>
       <c r="E2">
-        <v>12525000000</v>
+        <v>15590000000</v>
       </c>
       <c r="F2">
         <v>12841000000</v>
@@ -733,11 +844,11 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>26317000000</v>
+        <v>26565000000</v>
       </c>
       <c r="C3">
         <v>27233000000</v>
@@ -855,8 +966,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
         <v>18058000000</v>
@@ -977,20 +1088,20 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>3977000000</v>
+        <v>3578000000</v>
       </c>
       <c r="C5">
-        <v>2541000000</v>
+        <v>2410000000</v>
       </c>
       <c r="D5">
-        <v>5530000000</v>
+        <v>2617000000</v>
       </c>
       <c r="E5">
-        <v>5292000000</v>
+        <v>2227000000</v>
       </c>
       <c r="F5">
         <v>5319000000</v>
@@ -1099,8 +1210,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>68341000000</v>
@@ -1221,23 +1332,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>12626000000</v>
+        <v>30896000000</v>
       </c>
       <c r="C7">
-        <v>12764000000</v>
+        <v>31326000000</v>
       </c>
       <c r="D7">
-        <v>12844000000</v>
+        <v>31645000000</v>
       </c>
       <c r="E7">
-        <v>12896000000</v>
+        <v>32018000000</v>
       </c>
       <c r="F7">
-        <v>12771000000</v>
+        <v>33233000000</v>
       </c>
       <c r="G7">
         <v>12664000000</v>
@@ -1343,23 +1454,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>20565000000</v>
+        <v>20780000000</v>
       </c>
       <c r="C8">
-        <v>21124000000</v>
+        <v>21340000000</v>
       </c>
       <c r="D8">
-        <v>22595000000</v>
+        <v>22851000000</v>
       </c>
       <c r="E8">
-        <v>23025000000</v>
+        <v>23243000000</v>
       </c>
       <c r="F8">
-        <v>22370000000</v>
+        <v>22588000000</v>
       </c>
       <c r="G8">
         <v>22136000000</v>
@@ -1399,8 +1510,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>103243000000</v>
@@ -1521,23 +1632,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>8167000000</v>
+        <v>7952000000</v>
       </c>
       <c r="C10">
-        <v>8992000000</v>
+        <v>8776000000</v>
       </c>
       <c r="D10">
-        <v>9547000000</v>
+        <v>9291000000</v>
       </c>
       <c r="E10">
-        <v>9801000000</v>
+        <v>9583000000</v>
       </c>
       <c r="F10">
-        <v>9780000000</v>
+        <v>9562000000</v>
       </c>
       <c r="G10">
         <v>9697000000</v>
@@ -1643,8 +1754,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>162871000000</v>
@@ -1765,8 +1876,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>231212000000</v>
@@ -1778,7 +1889,7 @@
         <v>232873000000</v>
       </c>
       <c r="E12">
-        <v>232999000000</v>
+        <v>240496000000</v>
       </c>
       <c r="F12">
         <v>234891000000</v>
@@ -1887,23 +1998,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>13925000000</v>
+        <v>43437000000</v>
       </c>
       <c r="C13">
-        <v>13238000000</v>
+        <v>42031000000</v>
       </c>
       <c r="D13">
-        <v>12738000000</v>
+        <v>41570000000</v>
       </c>
       <c r="E13">
-        <v>12544000000</v>
+        <v>38682000000</v>
       </c>
       <c r="F13">
-        <v>12696000000</v>
+        <v>39468000000</v>
       </c>
       <c r="G13">
         <v>11052000000</v>
@@ -2009,8 +2120,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>19423000000</v>
@@ -2131,23 +2242,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>1363000000</v>
+        <v>3050000000</v>
       </c>
       <c r="C15">
-        <v>4019000000</v>
+        <v>5873000000</v>
       </c>
       <c r="D15">
-        <v>4217000000</v>
+        <v>6066000000</v>
       </c>
       <c r="E15">
-        <v>4205000000</v>
+        <v>5851000000</v>
       </c>
       <c r="F15">
-        <v>1561000000</v>
+        <v>3370000000</v>
       </c>
       <c r="G15">
         <v>60000000</v>
@@ -2253,23 +2364,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>6499000000</v>
+        <v>25922000000</v>
       </c>
       <c r="C16">
-        <v>2825000000</v>
+        <v>20553000000</v>
       </c>
       <c r="D16">
-        <v>5525000000</v>
+        <v>22144000000</v>
       </c>
       <c r="E16">
-        <v>5604000000</v>
+        <v>23274000000</v>
       </c>
       <c r="F16">
-        <v>5731000000</v>
+        <v>21871000000</v>
       </c>
       <c r="G16">
         <v>5942000000</v>
@@ -2309,8 +2420,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>72409000000</v>
@@ -2431,23 +2542,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>50848000000</v>
+        <v>68022000000</v>
       </c>
       <c r="C18">
-        <v>50797000000</v>
+        <v>68299000000</v>
       </c>
       <c r="D18">
-        <v>52063000000</v>
+        <v>69849000000</v>
       </c>
       <c r="E18">
-        <v>51971000000</v>
+        <v>70148000000</v>
       </c>
       <c r="F18">
-        <v>56832000000</v>
+        <v>75288000000</v>
       </c>
       <c r="G18">
         <v>59294000000</v>
@@ -2553,8 +2664,8 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
         <v>3508000000</v>
@@ -2675,8 +2786,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2689,8 +2800,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>16262000000</v>
@@ -2811,8 +2922,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>87792000000</v>
@@ -2933,8 +3044,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>160201000000</v>
@@ -2946,7 +3057,7 @@
         <v>158733000000</v>
       </c>
       <c r="E23">
-        <v>157618000000</v>
+        <v>165115000000</v>
       </c>
       <c r="F23">
         <v>160273000000</v>
@@ -3055,8 +3166,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="R24">
         <v>32360000000</v>
@@ -3126,8 +3237,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>48047000000</v>
@@ -3139,7 +3250,7 @@
         <v>47677000000</v>
       </c>
       <c r="E25">
-        <v>47377000000</v>
+        <v>17000000</v>
       </c>
       <c r="F25">
         <v>47133000000</v>
@@ -3248,8 +3359,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>54571000000</v>
@@ -3370,8 +3481,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>30326000000</v>
@@ -3492,8 +3603,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="R28">
         <v>-29000000</v>
@@ -3563,23 +3674,23 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
-        <v>71011000000</v>
+        <v>70683000000</v>
       </c>
       <c r="C29">
-        <v>75506000000</v>
+        <v>75184000000</v>
       </c>
       <c r="D29">
-        <v>74140000000</v>
+        <v>73830000000</v>
       </c>
       <c r="E29">
-        <v>75381000000</v>
+        <v>75075000000</v>
       </c>
       <c r="F29">
-        <v>74618000000</v>
+        <v>74308000000</v>
       </c>
       <c r="G29">
         <v>73565000000</v>
@@ -3685,23 +3796,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>71011000000</v>
+        <v>70683000000</v>
       </c>
       <c r="C30">
-        <v>75506000000</v>
+        <v>75184000000</v>
       </c>
       <c r="D30">
-        <v>74140000000</v>
+        <v>73830000000</v>
       </c>
       <c r="E30">
-        <v>75381000000</v>
+        <v>75075000000</v>
       </c>
       <c r="F30">
-        <v>74618000000</v>
+        <v>74308000000</v>
       </c>
       <c r="G30">
         <v>73565000000</v>
@@ -3807,8 +3918,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>231212000000</v>
@@ -3929,8 +4040,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1315000000</v>
@@ -4051,8 +4162,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>-32232000000</v>
@@ -4173,23 +4284,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>32222000000</v>
+        <v>50932000000</v>
       </c>
       <c r="C34">
-        <v>39823000000</v>
+        <v>59048000000</v>
       </c>
       <c r="D34">
-        <v>44938000000</v>
+        <v>61660000000</v>
       </c>
       <c r="E34">
-        <v>43651000000</v>
+        <v>60409000000</v>
       </c>
       <c r="F34">
-        <v>45552000000</v>
+        <v>65817000000</v>
       </c>
       <c r="G34">
         <v>49229000000</v>
@@ -4295,23 +4406,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>52211000000</v>
+        <v>71072000000</v>
       </c>
       <c r="C35">
-        <v>54816000000</v>
+        <v>74172000000</v>
       </c>
       <c r="D35">
-        <v>56280000000</v>
+        <v>75915000000</v>
       </c>
       <c r="E35">
-        <v>56176000000</v>
+        <v>75999000000</v>
       </c>
       <c r="F35">
-        <v>58393000000</v>
+        <v>78658000000</v>
       </c>
       <c r="G35">
         <v>59354000000</v>
